--- a/twitter/out.xlsx
+++ b/twitter/out.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,20 +497,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ココナラで出品したサービスが購入されました！
-「安く作業効率化,スクレイピング,ツール作成します 最安値、プログラミングで作業効率化をお手伝いいたします。」
-#ココナラ 
- https://t.co/alPYJZWMIj</t>
+          <t>作業効率化,webスクレイピングを承ります 最安値、プログラミングで作業効率化をお手伝いいたします。 | ココナラ[coconala]
+ https://t.co/8bS5jSXxLV</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44742</v>
+        <v>44723</v>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -519,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -531,18 +529,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>安く作業効率化,スクレイピング,ツール作成します 最安値、プログラミングで作業効率化をお手伝いいたします。 | ココナラ[coconala]
- https://t.co/8bS5jSXxLV</t>
+          <t>ココナラで出品したサービスが購入されました！
+「作業効率化,webスクレイピングを承ります 最安値、プログラミングで作業効率化をお手伝いいたします。」 https://t.co/K2L7Ornu0H #ココナラ</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44731</v>
+        <v>44720</v>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -554,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -563,18 +561,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>作業効率化,webスクレイピングを承ります 最安値、プログラミングで作業効率化をお手伝いいたします。 | ココナラ[coconala]
- https://t.co/8bS5jSXxLV</t>
+          <t>作業効率化,webスクレイピングを承ります 最安値、プログラミングで作業効率化をお手伝いいたします。 | 作業自動化・効率化 | ココナラ https://t.co/8bS5jSXxLV</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44723</v>
+        <v>44722</v>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -583,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -595,11 +592,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>作業効率化,webスクレイピングを承ります 最安値、プログラミングで作業効率化をお手伝いいたします。 | 作業自動化・効率化 | ココナラ https://t.co/8bS5jSXxLV</t>
+          <t>作業効率化,webスクレイピングを承ります 最安値、プログラミングで作業効率化をお手伝いいたします。 | 作業自動化・効率化 | ココナラ https://t.co/8bS5jSWZWn</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44722</v>
+        <v>44721</v>
       </c>
       <c r="C5" t="n">
         <v>29</v>
@@ -614,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -626,17 +623,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>作業効率化,webスクレイピングを承ります 最安値、プログラミングで作業効率化をお手伝いいたします。 | 作業自動化・効率化 | ココナラ https://t.co/8bS5jSWZWn</t>
+          <t>ココナラでサービスを出品しました！
+「作業効率化,webスクレイピングを承ります 最安値、プログラミングで作業効率化をお手伝いいたします。」
+ #ココナラ
+ https://t.co/7wqNAVmQ8Z</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44721</v>
+        <v>44719</v>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -657,18 +657,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ココナラで出品したサービスが購入されました！
-「作業効率化,webスクレイピングを承ります 最安値、プログラミングで作業効率化をお手伝いいたします。」 https://t.co/K2L7Ornu0H #ココナラ</t>
+          <t>安く作業効率化,スクレイピング,ツール作成します 最安値、プログラミングで作業効率化をお手伝いいたします。 | ココナラ[coconala]
+ https://t.co/8bS5jSXxLV</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44720</v>
+        <v>44731</v>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -680,108 +680,11 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ココナラでサービスを出品しました！
-「作業効率化,webスクレイピングを承ります 最安値、プログラミングで作業効率化をお手伝いいたします。」
- #ココナラ
- https://t.co/7wqNAVmQ8Z</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>44719</v>
-      </c>
-      <c r="C8" t="n">
-        <v>26</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>@CREST__eS @L1am_n 1.2おねがいします</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>44710</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://t.co/aiSXIqDlLA
-#カビュウ #投資家タイプ診断 https://t.co/Ty6LAkzT0H</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>44682</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
